--- a/webservicesintegrationtestdata.xlsx
+++ b/webservicesintegrationtestdata.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Automation\AutomationNested\royfielding.webservicesIntegration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE57BF4-C36F-458A-BDF2-643A7F04231F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3A7435-A09A-4A87-B89C-1D24DDAB0527}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -82,7 +82,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -100,29 +99,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color indexed="12"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="12"/>
-      <i val="true"/>
-      <b val="true"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <i val="true"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <i val="true"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <i val="true"/>
     </font>
   </fonts>
   <fills count="4">
@@ -165,16 +164,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -460,20 +459,20 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1048576"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.5703125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="17.140625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="15.28515625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="19.0" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="25.42578125" collapsed="false"/>
-    <col min="6" max="6" width="29.9765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -489,11 +488,11 @@
       <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2020</v>
       </c>
@@ -509,11 +508,11 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s" s="4">
+      <c r="F2" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2023</v>
       </c>
@@ -529,11 +528,11 @@
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="5">
+      <c r="F3" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2019</v>
       </c>
@@ -549,7 +548,7 @@
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="6">
+      <c r="F4" s="6" t="s">
         <v>16</v>
       </c>
     </row>
